--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2275.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2275.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.149577798787544</v>
+        <v>1.213302731513977</v>
       </c>
       <c r="B1">
-        <v>2.667948524621715</v>
+        <v>2.584191083908081</v>
       </c>
       <c r="C1">
-        <v>4.890969835571951</v>
+        <v>4.342037677764893</v>
       </c>
       <c r="D1">
-        <v>2.96580056797999</v>
+        <v>2.073843002319336</v>
       </c>
       <c r="E1">
-        <v>1.225145326198962</v>
+        <v>1.167407155036926</v>
       </c>
     </row>
   </sheetData>
